--- a/biology/Botanique/Phallaceae/Phallaceae.xlsx
+++ b/biology/Botanique/Phallaceae/Phallaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phallaceae (Phallacées) sont une famille de champignons  de l'ordre des Phallales.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycetes
@@ -554,12 +568,49 @@
           <t>Classification linnéenne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Réceptacle cylindracé, phallique. Gleba formée sur la partie externe[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réceptacle cylindracé, phallique. Gleba formée sur la partie externe
 Longtemps rattachés aux Lycoperdons, mais leur constitution est plus élaborée. Les Phallus, par exemple, naissent dans un péridium en forme d’œuf, de consistance gélatineuse. En se développant, la partie blanche et dure se détend en un corps caverneux portant au sommet le capuchon verdâtre (l’hyménium) déjà visible dans l’œuf. 
-Liste des genres de la famille des Phallaceae
-Elle se compose de 23 genres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phallaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phallaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification linnéenne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres de la famille des Phallaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle se compose de 23 genres.
 Genre Anthurus
 Anthurus muellerianus
 Genre Aporophallus
